--- a/reports/Visitor-Template.xlsx
+++ b/reports/Visitor-Template.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t xml:space="preserve">Vehicle Data</t>
   </si>
@@ -41,6 +41,24 @@
   </si>
   <si>
     <t xml:space="preserve">Domestic Commercial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Car + Trailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ute + Trailer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GVM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Van</t>
   </si>
 </sst>
 </file>
@@ -152,16 +170,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K14" activeCellId="0" sqref="K14"/>
+      <selection pane="topLeft" activeCell="F39" activeCellId="0" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="13.13"/>
   </cols>
   <sheetData>
@@ -231,6 +249,26 @@
         <v>5</v>
       </c>
     </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="B39" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="0" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
